--- a/data/trans_orig/P14A16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16EA8F8-628D-42EF-BFDB-82C1218C5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1F1E3D-CABA-41E8-8BC7-A6B2F4B150DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD10AD10-3BE8-4539-851C-EBA390EFB714}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCBB46C9-7FC0-492D-AFBB-006E16F353B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
   <si>
     <t>Población que recibe medicación o terapia por alergias crónicas en 2012 (Tasa respuesta: 6,22%)</t>
   </si>
@@ -84,55 +84,55 @@
     <t>83,47%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,25 +144,25 @@
     <t>61,32%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>60,67%</t>
+    <t>61,53%</t>
   </si>
   <si>
     <t>89,56%</t>
@@ -171,19 +171,19 @@
     <t>38,68%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>22,98%</t>
@@ -192,7 +192,7 @@
     <t>10,44%</t>
   </si>
   <si>
-    <t>39,33%</t>
+    <t>38,47%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -201,55 +201,55 @@
     <t>69,51%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>62,5%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -258,55 +258,55 @@
     <t>67,62%</t>
   </si>
   <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -315,37 +315,34 @@
     <t>75,21%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>5,54%</t>
@@ -354,16 +351,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -372,55 +366,55 @@
     <t>57,6%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -429,577 +423,577 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>65,13%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>75,65%</t>
   </si>
   <si>
     <t>33,57%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>38,18%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>68,73%</t>
+    <t>70,05%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>31,27%</t>
+    <t>29,95%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>65,69%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>58,55%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>60,34%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>41,45%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
+    <t>39,66%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EACB05-4CF6-46BA-9CDD-737B1D35BBC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369FBCF-3254-46E2-A9CA-D012BE88C829}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,10 +2304,10 @@
         <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2322,13 +2316,13 @@
         <v>27146</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2337,13 @@
         <v>3944</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2358,13 +2352,13 @@
         <v>891</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2373,13 +2367,13 @@
         <v>4834</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2429,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2447,13 +2441,13 @@
         <v>13130</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2462,13 +2456,13 @@
         <v>30846</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -2477,13 +2471,13 @@
         <v>43975</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2492,13 @@
         <v>9663</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2513,13 +2507,13 @@
         <v>8341</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2528,13 +2522,13 @@
         <v>18005</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2584,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2602,13 +2596,13 @@
         <v>31558</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2617,13 +2611,13 @@
         <v>39658</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -2632,13 +2626,13 @@
         <v>71216</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2647,13 @@
         <v>8253</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2668,13 +2662,13 @@
         <v>12349</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2683,13 +2677,13 @@
         <v>20602</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2751,13 @@
         <v>127120</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>186</v>
@@ -2772,13 +2766,13 @@
         <v>200403</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>304</v>
@@ -2787,13 +2781,13 @@
         <v>327523</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2802,13 @@
         <v>48651</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -2823,13 +2817,13 @@
         <v>57833</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -2838,13 +2832,13 @@
         <v>106484</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AD6D33-699F-4CF4-A90E-C222526EF9D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C4527-65D2-424D-92C4-B121F299AC7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2941,7 +2935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3048,13 +3042,13 @@
         <v>11179</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3063,13 +3057,13 @@
         <v>20986</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3078,13 +3072,13 @@
         <v>32165</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3093,13 @@
         <v>7364</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3114,13 +3108,13 @@
         <v>6202</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3129,13 +3123,13 @@
         <v>13566</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3373,7 @@
         <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3427,7 +3421,7 @@
         <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>213</v>
@@ -3534,7 +3528,7 @@
         <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3543,13 +3537,13 @@
         <v>38623</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3558,13 @@
         <v>5336</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3579,13 +3573,13 @@
         <v>10513</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3594,13 +3588,13 @@
         <v>15849</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3662,13 @@
         <v>6343</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3683,13 +3677,13 @@
         <v>12351</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3698,13 +3692,13 @@
         <v>18695</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3713,13 @@
         <v>5303</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3734,13 +3728,13 @@
         <v>6243</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3749,13 +3743,13 @@
         <v>11545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3817,13 @@
         <v>11531</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3838,13 +3832,13 @@
         <v>17609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3853,13 +3847,13 @@
         <v>29140</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3868,13 @@
         <v>4947</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3889,13 +3883,13 @@
         <v>1901</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3904,13 +3898,13 @@
         <v>6848</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3960,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3978,13 +3972,13 @@
         <v>15056</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3993,13 +3987,13 @@
         <v>34667</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -4008,13 +4002,13 @@
         <v>49723</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4023,13 @@
         <v>4393</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4044,13 +4038,13 @@
         <v>18105</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -4059,13 +4053,13 @@
         <v>22498</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4115,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4133,13 +4127,13 @@
         <v>36049</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4148,13 +4142,13 @@
         <v>55158</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -4163,13 +4157,13 @@
         <v>91207</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>13320</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -4199,13 +4193,13 @@
         <v>21400</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -4214,13 +4208,13 @@
         <v>34720</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4282,13 @@
         <v>119888</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -4303,13 +4297,13 @@
         <v>207572</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>309</v>
@@ -4318,13 +4312,13 @@
         <v>327460</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>47581</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>71</v>
@@ -4354,13 +4348,13 @@
         <v>73999</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -4369,13 +4363,13 @@
         <v>121580</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4425,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1F1E3D-CABA-41E8-8BC7-A6B2F4B150DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9384AE0-6D35-4BF2-B394-EC9FAD582BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCBB46C9-7FC0-492D-AFBB-006E16F353B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{170AB6F2-956C-4D2C-9D57-8BA82F91BDF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="323">
   <si>
     <t>Población que recibe medicación o terapia por alergias crónicas en 2012 (Tasa respuesta: 6,22%)</t>
   </si>
@@ -84,55 +84,55 @@
     <t>83,47%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,55 +144,55 @@
     <t>61,32%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>38,68%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -201,55 +201,55 @@
     <t>69,51%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>62,5%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -258,742 +258,754 @@
     <t>67,62%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por alergias crónicas en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>36,65%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>71,59%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369FBCF-3254-46E2-A9CA-D012BE88C829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604541D-A16E-4E14-ABAF-D34FA9BABF0E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2003,7 +2015,7 @@
         <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>64897</v>
+        <v>64898</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>59</v>
@@ -2105,7 +2117,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>99573</v>
+        <v>99574</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -2304,10 +2316,10 @@
         <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2316,13 +2328,13 @@
         <v>27146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2349,13 @@
         <v>3944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2352,13 +2364,13 @@
         <v>891</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2367,13 +2379,13 @@
         <v>4834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,7 +2441,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2441,13 +2453,13 @@
         <v>13130</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2456,13 +2468,13 @@
         <v>30846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -2471,13 +2483,13 @@
         <v>43975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2504,13 @@
         <v>9663</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2507,13 +2519,13 @@
         <v>8341</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2522,13 +2534,13 @@
         <v>18005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2596,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2596,13 +2608,13 @@
         <v>31558</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2611,13 +2623,13 @@
         <v>39658</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -2626,13 +2638,13 @@
         <v>71216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2659,13 @@
         <v>8253</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2662,13 +2674,13 @@
         <v>12349</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2677,13 +2689,13 @@
         <v>20602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2763,13 @@
         <v>127120</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>186</v>
@@ -2766,13 +2778,13 @@
         <v>200403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>304</v>
@@ -2781,13 +2793,13 @@
         <v>327523</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2814,13 @@
         <v>48651</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -2817,13 +2829,13 @@
         <v>57833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -2832,13 +2844,13 @@
         <v>106484</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2906,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C4527-65D2-424D-92C4-B121F299AC7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35DC247-07EF-44BA-9588-20E4604DAEF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3042,13 +3054,13 @@
         <v>11179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3057,13 +3069,13 @@
         <v>20986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3072,13 +3084,13 @@
         <v>32165</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3105,13 @@
         <v>7364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3108,13 +3120,13 @@
         <v>6202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3123,13 +3135,13 @@
         <v>13566</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3209,13 @@
         <v>15258</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3212,13 +3224,13 @@
         <v>30405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3227,13 +3239,13 @@
         <v>45662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3260,13 @@
         <v>3179</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3263,13 +3275,13 @@
         <v>7849</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3278,13 +3290,13 @@
         <v>11029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3364,13 @@
         <v>10233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3367,13 +3379,13 @@
         <v>12013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3382,13 +3394,13 @@
         <v>22245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3415,13 @@
         <v>3738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -3418,13 +3430,13 @@
         <v>1786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3433,13 +3445,13 @@
         <v>5525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3519,13 @@
         <v>14239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3522,13 +3534,13 @@
         <v>24384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3537,13 +3549,13 @@
         <v>38623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3570,13 @@
         <v>5336</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3573,13 +3585,13 @@
         <v>10513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3588,13 +3600,13 @@
         <v>15849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3674,13 @@
         <v>6343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3677,13 +3689,13 @@
         <v>12351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3692,13 +3704,13 @@
         <v>18695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3725,13 @@
         <v>5303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3728,13 +3740,13 @@
         <v>6243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3743,13 +3755,13 @@
         <v>11545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3829,13 @@
         <v>11531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3832,13 +3844,13 @@
         <v>17609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3847,13 +3859,13 @@
         <v>29140</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3880,13 @@
         <v>4947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3883,13 +3895,13 @@
         <v>1901</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3898,13 +3910,13 @@
         <v>6848</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3972,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3972,13 +3984,13 @@
         <v>15056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3987,13 +3999,13 @@
         <v>34667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -4002,13 +4014,13 @@
         <v>49723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4035,13 @@
         <v>4393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4038,13 +4050,13 @@
         <v>18105</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -4053,13 +4065,13 @@
         <v>22498</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,7 +4127,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4127,13 +4139,13 @@
         <v>36049</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4142,13 +4154,13 @@
         <v>55158</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -4157,13 +4169,13 @@
         <v>91207</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4190,13 @@
         <v>13320</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -4193,13 +4205,13 @@
         <v>21400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -4208,13 +4220,13 @@
         <v>34720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4294,13 @@
         <v>119888</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -4297,13 +4309,13 @@
         <v>207572</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>309</v>
@@ -4312,13 +4324,13 @@
         <v>327460</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4345,13 @@
         <v>47581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>71</v>
@@ -4348,13 +4360,13 @@
         <v>73999</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -4363,13 +4375,13 @@
         <v>121580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,7 +4437,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
